--- a/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - investimento.xlsx
+++ b/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - investimento.xlsx
@@ -494,7 +494,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
@@ -591,7 +591,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -718,7 +718,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>13</c:v>
@@ -827,7 +827,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -939,7 +939,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -1039,19 +1039,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
@@ -1073,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="98851832"/>
-        <c:axId val="125995976"/>
+        <c:axId val="333123880"/>
+        <c:axId val="333125840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98851832"/>
+        <c:axId val="333123880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125995976"/>
+        <c:crossAx val="333125840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125995976"/>
+        <c:axId val="333125840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98851832"/>
+        <c:crossAx val="333123880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,22 +1641,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,22 +2183,22 @@
                 <c:formatCode>"€"\ #,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1380</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>580</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1562</c:v>
+                  <c:v>1496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2125</c:v>
+                  <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1260</c:v>
+                  <c:v>1395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,22 +2584,22 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>46</c:v>
+                        <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>29</c:v>
+                        <c:v>24</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>71</c:v>
+                        <c:v>68</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>85</c:v>
+                        <c:v>87</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>13</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>84</c:v>
+                        <c:v>93</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4719,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I27" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,7 +4768,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
         <v>5</v>
@@ -4780,11 +4780,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6">
         <f>B2+C2+D2+E2+F2+G2</f>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4834,11 +4834,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4882,17 +4882,17 @@
         <v>6</v>
       </c>
       <c r="E6" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" s="15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4900,13 +4900,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16">
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="16">
         <v>7</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4955,31 +4955,31 @@
       </c>
       <c r="B9" s="9">
         <f>B2+B3+B4+B6+B5+B7+B8</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:G9" si="1">C2+C3+C4+C6+C5+C7+C8</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="B17" s="15">
         <f>B9</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="22">
         <f>B17*30</f>
-        <v>1380</v>
+        <v>1230</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>25</v>
@@ -5015,11 +5015,11 @@
       </c>
       <c r="B18" s="16">
         <f>C9</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="23">
         <f>B18*20</f>
-        <v>580</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5028,11 +5028,11 @@
       </c>
       <c r="B19" s="15">
         <f>D9</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="22">
         <f>B19*22</f>
-        <v>1562</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5041,11 +5041,11 @@
       </c>
       <c r="B20" s="16">
         <f>E9</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="23">
         <f>B20*25</f>
-        <v>2125</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5054,11 +5054,11 @@
       </c>
       <c r="B21" s="15">
         <f>F9</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="22">
         <f>B21*15</f>
-        <v>195</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,11 +5067,11 @@
       </c>
       <c r="B22" s="16">
         <f>G9</f>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C22" s="23">
         <f>B22*15</f>
-        <v>1260</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5080,11 +5080,11 @@
       </c>
       <c r="B23" s="17">
         <f>B17+B18+B19+B20+B21+B22</f>
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C23" s="24">
         <f>C17+C18+C19+C20+C21+C22</f>
-        <v>7102</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">

--- a/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - investimento.xlsx
+++ b/Documents/RR/ExternalDocuments/PianoDiProgetto/preventivi/preventivo - riepilogo - investimento.xlsx
@@ -591,13 +591,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -815,13 +815,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1073,11 +1073,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="333123880"/>
-        <c:axId val="333125840"/>
+        <c:axId val="329506824"/>
+        <c:axId val="329508000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="333123880"/>
+        <c:axId val="329506824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1120,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333125840"/>
+        <c:crossAx val="329508000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333125840"/>
+        <c:axId val="329508000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1179,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333123880"/>
+        <c:crossAx val="329506824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,13 +1644,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17</c:v>
@@ -2074,6 +2074,27 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1343134295713036"/>
+                  <c:y val="3.2746427529892055E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
@@ -2186,13 +2207,13 @@
                   <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2175</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
@@ -2587,13 +2608,13 @@
                         <c:v>41</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>24</c:v>
+                        <c:v>49</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>68</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>87</c:v>
+                        <c:v>62</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>17</c:v>
@@ -4719,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,13 +4789,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5">
         <v>5</v>
       </c>
       <c r="E2" s="15">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -4822,13 +4843,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5">
         <v>5</v>
       </c>
       <c r="E4" s="15">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -4959,7 +4980,7 @@
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:G9" si="1">C2+C3+C4+C6+C5+C7+C8</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="1"/>
@@ -4967,7 +4988,7 @@
       </c>
       <c r="E9" s="17">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="1"/>
@@ -5015,11 +5036,11 @@
       </c>
       <c r="B18" s="16">
         <f>C9</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C18" s="23">
         <f>B18*20</f>
-        <v>480</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5041,11 +5062,11 @@
       </c>
       <c r="B20" s="16">
         <f>E9</f>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C20" s="23">
         <f>B20*25</f>
-        <v>2175</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5084,7 +5105,7 @@
       </c>
       <c r="C23" s="24">
         <f>C17+C18+C19+C20+C21+C22</f>
-        <v>7031</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
